--- a/Project Development Phase/User Acceptance Testing/Testcase Report.xlsx
+++ b/Project Development Phase/User Acceptance Testing/Testcase Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOPAL G\Desktop\naliyathiran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOPAL G\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD310E2-DB13-4B4F-A33A-3A7D9BD103BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6891878E-4FC0-4295-85C4-F305D32A9A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C9DEA43C-9867-4363-AF79-963534762DBA}"/>
   </bookViews>
@@ -222,9 +222,6 @@
     <t>Application should show 'username or password is wrong' validation message.</t>
   </si>
   <si>
-    <t xml:space="preserve">Username : preethig                        Password : user                       </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.Enter URL(http://127.0.0.1:5000/) and click enter to go.                                                                   2.Enter valid username in respective field.                                                       3.Enter valid password.                             4.click login button    </t>
   </si>
   <si>
@@ -322,6 +319,9 @@
   </si>
   <si>
     <t>ResultPage_TC_OO9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username : preethig                                       Password : user                       </t>
   </si>
 </sst>
 </file>
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25048D9-58DF-4C07-91F9-242C85C7EAE1}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AE16" sqref="AE16"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -834,7 +834,7 @@
     <col min="3" max="3" width="31.54296875" customWidth="1"/>
     <col min="4" max="5" width="26.26953125" customWidth="1"/>
     <col min="6" max="6" width="39.453125" customWidth="1"/>
-    <col min="7" max="7" width="36.1796875" customWidth="1"/>
+    <col min="7" max="7" width="40.1796875" customWidth="1"/>
     <col min="8" max="8" width="33.26953125" customWidth="1"/>
     <col min="9" max="9" width="23.6328125" customWidth="1"/>
     <col min="10" max="10" width="16.08984375" customWidth="1"/>
@@ -872,7 +872,7 @@
         <v>42</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="16"/>
@@ -891,7 +891,7 @@
         <v>43</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="16"/>
@@ -1055,7 +1055,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>18</v>
@@ -1070,7 +1070,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="1" t="s">
@@ -1130,7 +1130,7 @@
         <v>33</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>59</v>
@@ -1162,13 +1162,13 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>27</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="12" spans="1:13" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>14</v>
@@ -1195,17 +1195,17 @@
         <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>27</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="13" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>22</v>
@@ -1230,17 +1230,17 @@
         <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>27</v>
@@ -1256,28 +1256,28 @@
     </row>
     <row r="14" spans="1:13" ht="148.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>27</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="15" spans="1:13" ht="137" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>22</v>
@@ -1304,19 +1304,19 @@
         <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>27</v>
@@ -1325,7 +1325,7 @@
         <v>19</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="1" t="s">
@@ -1343,19 +1343,19 @@
         <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>27</v>
@@ -1364,7 +1364,7 @@
         <v>19</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="1" t="s">
@@ -1450,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -1465,7 +1465,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -1495,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -1510,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -1525,7 +1525,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -1540,7 +1540,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
